--- a/_results-article.xlsx
+++ b/_results-article.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-depolarize\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-depolarize-fair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190D6337-BA03-413E-A1BB-9A499AFF94CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620ADACC-13E2-4717-940F-93F19D5F87A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="52" r:id="rId1"/>
@@ -540,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D720DC-3217-45A4-A188-05D3D5889D79}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -879,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D42DD-949D-4820-BE82-3994914616EC}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4798,9 +4798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1382858-3B03-4A5A-9432-E815A86D8AE7}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/_results-article.xlsx
+++ b/_results-article.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-depolarize-fair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620ADACC-13E2-4717-940F-93F19D5F87A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34BCEFA-EC3B-4AD9-B99A-5510CE7A8AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="52" r:id="rId1"/>
@@ -540,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D720DC-3217-45A4-A188-05D3D5889D79}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -879,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D42DD-949D-4820-BE82-3994914616EC}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
